--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1250984880814534</v>
+        <v>0.1109282614759383</v>
       </c>
       <c r="H2" t="n">
-        <v>88.63475917282211</v>
+        <v>67.26761617893372</v>
       </c>
       <c r="I2" t="n">
-        <v>26.48940093807031</v>
+        <v>-5.829070540232857</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1490765829241902</v>
+        <v>0.153288179077933</v>
       </c>
       <c r="H3" t="n">
-        <v>26.05525817381822</v>
+        <v>29.61647369184415</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3007727855014379</v>
+        <v>-0.2881273104338656</v>
       </c>
       <c r="H4" t="n">
-        <v>9.373771056126595</v>
+        <v>-4.775338745733944</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3635617565518143</v>
+        <v>-0.3336595871144162</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.885159556009629</v>
+        <v>16.37915843823089</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1543159133413471</v>
+        <v>0.1862176858016992</v>
       </c>
       <c r="H6" t="n">
-        <v>-21.72632312963405</v>
+        <v>-5.544783746654026</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2621395485080035</v>
+        <v>0.2933361746628487</v>
       </c>
       <c r="H7" t="n">
-        <v>26.40402495110251</v>
+        <v>41.44707791015222</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1004568583382898</v>
+        <v>0.07969333450842596</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.412380061347703</v>
+        <v>-21.78954922417756</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1436223391791777</v>
+        <v>0.1301092900904414</v>
       </c>
       <c r="H9" t="n">
-        <v>13.55334411833235</v>
+        <v>2.869407886470347</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03627581027815024</v>
+        <v>0.0348079360263512</v>
       </c>
       <c r="H10" t="n">
-        <v>-40.95523035325792</v>
+        <v>-43.34443396865068</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06507094313952065</v>
+        <v>0.08179399073235775</v>
       </c>
       <c r="H11" t="n">
-        <v>30.32394597647085</v>
+        <v>63.81682998735577</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1359838885717935</v>
+        <v>0.1038180429345155</v>
       </c>
       <c r="H12" t="n">
-        <v>46.90286843287151</v>
+        <v>12.15422990434188</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1103171616418648</v>
+        <v>0.1081417088164642</v>
       </c>
       <c r="H13" t="n">
-        <v>44.75851472622392</v>
+        <v>41.90387891820429</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2178622694937314</v>
+        <v>0.1980689796475784</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.58440198060341</v>
+        <v>-12.34398151552145</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2812597225376273</v>
+        <v>0.2567939686737156</v>
       </c>
       <c r="H15" t="n">
-        <v>14.16495950958426</v>
+        <v>4.23416752115348</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1195708150551276</v>
+        <v>0.1210531513228685</v>
       </c>
       <c r="H16" t="n">
-        <v>5.121952058563301</v>
+        <v>6.425163732752237</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1639186107809208</v>
+        <v>0.130052095579332</v>
       </c>
       <c r="H17" t="n">
-        <v>9.711788156881584</v>
+        <v>-12.95528987475452</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001736692358082765</v>
+        <v>-0.02167403824249554</v>
       </c>
       <c r="H18" t="n">
-        <v>-119.4001588571128</v>
+        <v>-142.115296369326</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07267349195033909</v>
+        <v>0.07169465151351899</v>
       </c>
       <c r="H19" t="n">
-        <v>200.0335413032686</v>
+        <v>195.9923846896486</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09259991708955781</v>
+        <v>0.1240855323053454</v>
       </c>
       <c r="H20" t="n">
-        <v>8.862749686644829</v>
+        <v>45.87801660801036</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0952597081214019</v>
+        <v>0.07588283420200163</v>
       </c>
       <c r="H21" t="n">
-        <v>45.53695314941641</v>
+        <v>15.93313378650229</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1577322707618889</v>
+        <v>0.203281806123856</v>
       </c>
       <c r="H22" t="n">
-        <v>-17.65979928666045</v>
+        <v>6.118200395887283</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2152591697333179</v>
+        <v>0.2523183989992882</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2077598220719022</v>
+        <v>16.97256988142132</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02728152584042658</v>
+        <v>-0.02800339258122476</v>
       </c>
       <c r="H24" t="n">
-        <v>616.8843467696054</v>
+        <v>-635.8530426540916</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03427151713648723</v>
+        <v>0.02664859338819538</v>
       </c>
       <c r="H25" t="n">
-        <v>-247.3579730079154</v>
+        <v>214.5815252227584</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1882337091503561</v>
+        <v>0.2119075707299745</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.118763539900606</v>
+        <v>3.436997027847126</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2040934123581211</v>
+        <v>0.2214821585090581</v>
       </c>
       <c r="H27" t="n">
-        <v>5.811182110680447</v>
+        <v>14.82628830345011</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05538639153249468</v>
+        <v>0.002405485565558058</v>
       </c>
       <c r="H28" t="n">
-        <v>-17.22709431475265</v>
+        <v>-96.40509113636071</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1282981536449</v>
+        <v>0.1056326141597872</v>
       </c>
       <c r="H29" t="n">
-        <v>36.10431082282253</v>
+        <v>12.05971202378614</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_annual.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06631783486247173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1109282614759383</v>
+        <v>0.05477401295660311</v>
       </c>
       <c r="H2" t="n">
-        <v>67.26761617893372</v>
+        <v>-17.40681361176507</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.829070540232857</v>
+        <v>-36.93293830580932</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.1182628833448802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.153288179077933</v>
+        <v>0.1651846152990004</v>
       </c>
       <c r="H3" t="n">
-        <v>29.61647369184415</v>
+        <v>39.67578890943005</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.274995350893673</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2881273104338656</v>
+        <v>-0.2971865781107922</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.775338745733944</v>
+        <v>-8.06967359448176</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.3990148638577719</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3336595871144162</v>
+        <v>-0.396346212389832</v>
       </c>
       <c r="H5" t="n">
-        <v>16.37915843823089</v>
+        <v>0.66881003934008</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.1971491815785268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1862176858016992</v>
+        <v>0.1536355630268982</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.544783746654026</v>
+        <v>-22.07141729081772</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2073822796460858</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2933361746628487</v>
+        <v>0.2978431358726834</v>
       </c>
       <c r="H7" t="n">
-        <v>41.44707791015222</v>
+        <v>43.62034035934806</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1018960173709444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07969333450842596</v>
+        <v>0.111257285428306</v>
       </c>
       <c r="H8" t="n">
-        <v>-21.78954922417756</v>
+        <v>9.187079435384247</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1264800612384527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1301092900904414</v>
+        <v>0.1576573670770975</v>
       </c>
       <c r="H9" t="n">
-        <v>2.869407886470347</v>
+        <v>24.64997686858029</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.06143780472882551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0348079360263512</v>
+        <v>0.04312071461089294</v>
       </c>
       <c r="H10" t="n">
-        <v>-43.34443396865068</v>
+        <v>-29.81403746240712</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>0.04993015109538564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08179399073235775</v>
+        <v>0.0732585551357402</v>
       </c>
       <c r="H11" t="n">
-        <v>63.81682998735577</v>
+        <v>46.7220777998216</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.09256721126172732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1038180429345155</v>
+        <v>0.06948185498877853</v>
       </c>
       <c r="H12" t="n">
-        <v>12.15422990434188</v>
+        <v>-24.93902101865914</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.07620771866200983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1081417088164642</v>
+        <v>0.1091795093241323</v>
       </c>
       <c r="H13" t="n">
-        <v>41.90387891820429</v>
+        <v>43.26568389792146</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2259616431045758</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1980689796475784</v>
+        <v>0.2099341306981943</v>
       </c>
       <c r="H14" t="n">
-        <v>-12.34398151552145</v>
+        <v>-7.093023482292487</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2463625649637403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2567939686737156</v>
+        <v>0.2462780398456341</v>
       </c>
       <c r="H15" t="n">
-        <v>4.23416752115348</v>
+        <v>-0.03430923773611218</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1137448579612704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1210531513228685</v>
+        <v>0.1283641395887623</v>
       </c>
       <c r="H16" t="n">
-        <v>6.425163732752237</v>
+        <v>12.85269671923956</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1494083849463164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.130052095579332</v>
+        <v>0.1579292875863798</v>
       </c>
       <c r="H17" t="n">
-        <v>-12.95528987475452</v>
+        <v>5.703095340415495</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.00895194916121023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02167403824249554</v>
+        <v>-0.003529713647506331</v>
       </c>
       <c r="H18" t="n">
-        <v>-142.115296369326</v>
+        <v>60.57044578848856</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.02422178921552041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07169465151351899</v>
+        <v>0.05087740200659058</v>
       </c>
       <c r="H19" t="n">
-        <v>195.9923846896486</v>
+        <v>110.0480751190348</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.08506115944719507</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1240855323053454</v>
+        <v>0.1073912169398027</v>
       </c>
       <c r="H20" t="n">
-        <v>45.87801660801036</v>
+        <v>26.25176712582887</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.06545396619895082</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07588283420200163</v>
+        <v>0.09975476302806766</v>
       </c>
       <c r="H21" t="n">
-        <v>15.93313378650229</v>
+        <v>52.40445892133984</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1915616787370005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.203281806123856</v>
+        <v>0.1845577929680859</v>
       </c>
       <c r="H22" t="n">
-        <v>6.118200395887283</v>
+        <v>-3.656204004419074</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.2157073228835368</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2523183989992882</v>
+        <v>0.2547214070526104</v>
       </c>
       <c r="H23" t="n">
-        <v>16.97256988142132</v>
+        <v>18.08658308282739</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0038055686336801</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02800339258122476</v>
+        <v>-0.06329967720995883</v>
       </c>
       <c r="H24" t="n">
-        <v>-635.8530426540916</v>
+        <v>-1563.343465934186</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.02325732122729886</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02664859338819538</v>
+        <v>0.02314636750272854</v>
       </c>
       <c r="H25" t="n">
-        <v>214.5815252227584</v>
+        <v>199.5229299045838</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2048663213539785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2119075707299745</v>
+        <v>0.1980291360662278</v>
       </c>
       <c r="H26" t="n">
-        <v>3.436997027847126</v>
+        <v>-3.337388616422252</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.1928845404492652</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2214821585090581</v>
+        <v>0.224049406658419</v>
       </c>
       <c r="H27" t="n">
-        <v>14.82628830345011</v>
+        <v>16.15726492987195</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.06691367310833238</v>
       </c>
       <c r="G28" t="n">
-        <v>0.002405485565558058</v>
+        <v>0.02102796231510452</v>
       </c>
       <c r="H28" t="n">
-        <v>-96.40509113636071</v>
+        <v>-68.57449107440191</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.09426457756500864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1056326141597872</v>
+        <v>0.09881802659244286</v>
       </c>
       <c r="H29" t="n">
-        <v>12.05971202378614</v>
+        <v>4.830498523471324</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>